--- a/static/documentos/RED INNOVATIC.xlsx
+++ b/static/documentos/RED INNOVATIC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ANDES 2016\Formacion\Interventoria\MATRICES\FORMATOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SISTEMAS\Documents\PycharmProjects\sican\static\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -554,7 +554,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -578,19 +578,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -599,30 +586,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -691,15 +654,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -775,195 +729,216 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="1" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="11" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -1372,509 +1347,523 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.625"/>
-    <col min="3" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="13.75" customWidth="1"/>
-    <col min="6" max="7" width="13.625" customWidth="1"/>
-    <col min="8" max="8" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.875" customWidth="1"/>
-    <col min="10" max="11" width="13.125" customWidth="1"/>
-    <col min="12" max="13" width="15" customWidth="1"/>
-    <col min="14" max="22" width="11.375" style="5"/>
-    <col min="23" max="23" width="15.625" style="5" customWidth="1"/>
-    <col min="24" max="24" width="11.375" style="5"/>
-    <col min="25" max="25" width="14.625" style="5" customWidth="1"/>
-    <col min="26" max="47" width="11.375" style="5"/>
-    <col min="48" max="48" width="17.75" style="5" customWidth="1"/>
-    <col min="49" max="16384" width="11.375" style="5"/>
+    <col min="1" max="1" width="16.375" style="51" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="52"/>
+    <col min="3" max="4" width="13.625" style="52" customWidth="1"/>
+    <col min="5" max="5" width="13.75" style="52" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="52" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="53" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="52" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.875" style="52" customWidth="1"/>
+    <col min="10" max="10" width="13.125" style="53" customWidth="1"/>
+    <col min="11" max="11" width="13.125" style="54" customWidth="1"/>
+    <col min="12" max="12" width="15" style="54" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="22" width="11.375" style="55"/>
+    <col min="23" max="23" width="15.625" style="55" customWidth="1"/>
+    <col min="24" max="24" width="11.375" style="55"/>
+    <col min="25" max="25" width="14.625" style="55" customWidth="1"/>
+    <col min="26" max="47" width="11.375" style="55"/>
+    <col min="48" max="48" width="17.75" style="55" customWidth="1"/>
+    <col min="49" max="16384" width="11.375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="13" t="s">
+      <c r="A1" s="56"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="64" t="s">
+      <c r="O1" s="66"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="59" t="s">
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
+      <c r="AG1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="61" t="s">
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="34"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="34"/>
+      <c r="AM1" s="34"/>
+      <c r="AN1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60"/>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="14"/>
-      <c r="AS1" s="14"/>
-      <c r="AT1" s="14"/>
-      <c r="AU1" s="14"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="34"/>
+      <c r="AQ1" s="34"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
     </row>
     <row r="2" spans="1:48" s="1" customFormat="1" ht="27" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="48" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="49"/>
-      <c r="P2" s="47" t="s">
+      <c r="O2" s="67"/>
+      <c r="P2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="47" t="s">
+      <c r="Q2" s="30"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="15" t="s">
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="62" t="s">
+      <c r="X2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="62" t="s">
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="62" t="s">
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="16" t="s">
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AG2" s="62" t="s">
+      <c r="AG2" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="62" t="s">
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="63" t="s">
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="17" t="s">
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AN2" s="63" t="s">
+      <c r="AN2" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="63" t="s">
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="14"/>
-      <c r="AS2" s="14"/>
-      <c r="AT2" s="14"/>
-      <c r="AU2" s="14"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
     </row>
     <row r="3" spans="1:48" s="1" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="18">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="68">
         <v>1</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="69">
         <v>4</v>
       </c>
-      <c r="P3" s="20">
+      <c r="P3" s="28">
         <v>5</v>
       </c>
-      <c r="Q3" s="21">
+      <c r="Q3" s="10">
         <v>7</v>
       </c>
-      <c r="R3" s="22">
+      <c r="R3" s="11">
         <v>8</v>
       </c>
-      <c r="S3" s="50">
+      <c r="S3" s="42">
         <v>9</v>
       </c>
-      <c r="T3" s="51"/>
-      <c r="U3" s="22">
+      <c r="T3" s="43"/>
+      <c r="U3" s="11">
         <v>10</v>
       </c>
-      <c r="V3" s="21">
+      <c r="V3" s="10">
         <v>11</v>
       </c>
-      <c r="W3" s="21">
+      <c r="W3" s="10">
         <v>13</v>
       </c>
-      <c r="X3" s="57">
+      <c r="X3" s="49">
         <v>17</v>
       </c>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="22">
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="11">
         <v>20</v>
       </c>
-      <c r="AA3" s="20">
+      <c r="AA3" s="9">
         <v>21</v>
       </c>
-      <c r="AB3" s="19">
+      <c r="AB3" s="8">
         <v>22</v>
       </c>
-      <c r="AC3" s="58">
+      <c r="AC3" s="50">
         <v>24</v>
       </c>
-      <c r="AD3" s="45"/>
-      <c r="AE3" s="21">
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="10">
         <v>25</v>
       </c>
-      <c r="AF3" s="23">
+      <c r="AF3" s="12">
         <v>28</v>
       </c>
-      <c r="AG3" s="22">
+      <c r="AG3" s="11">
         <v>32</v>
       </c>
-      <c r="AH3" s="22">
+      <c r="AH3" s="11">
         <v>34</v>
       </c>
-      <c r="AI3" s="24">
+      <c r="AI3" s="13">
         <v>35</v>
       </c>
-      <c r="AJ3" s="25">
+      <c r="AJ3" s="14">
         <v>37</v>
       </c>
-      <c r="AK3" s="26">
+      <c r="AK3" s="15">
         <v>38</v>
       </c>
-      <c r="AL3" s="26">
+      <c r="AL3" s="15">
         <v>40</v>
       </c>
-      <c r="AM3" s="27">
+      <c r="AM3" s="16">
         <v>41</v>
       </c>
-      <c r="AN3" s="54">
+      <c r="AN3" s="46">
         <v>45</v>
       </c>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="55">
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="47">
         <v>49</v>
       </c>
-      <c r="AQ3" s="45"/>
-      <c r="AR3" s="14"/>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14"/>
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
     </row>
     <row r="4" spans="1:48" s="1" customFormat="1" ht="108" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="28" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58"/>
+      <c r="M4" s="58"/>
+      <c r="N4" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="O4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="25" t="s">
+      <c r="P4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="R4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="S4" s="52" t="s">
+      <c r="S4" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="53"/>
-      <c r="U4" s="31" t="s">
+      <c r="T4" s="45"/>
+      <c r="U4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="V4" s="30" t="s">
+      <c r="V4" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="W4" s="30" t="s">
+      <c r="W4" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="X4" s="44" t="s">
+      <c r="X4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="Y4" s="45"/>
-      <c r="Z4" s="31" t="s">
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="25" t="s">
+      <c r="AA4" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="29" t="s">
+      <c r="AB4" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AC4" s="56" t="s">
+      <c r="AC4" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="AD4" s="45"/>
-      <c r="AE4" s="30" t="s">
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="AF4" s="32" t="s">
+      <c r="AF4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="AG4" s="31" t="s">
+      <c r="AG4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="31" t="s">
+      <c r="AH4" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="25" t="s">
+      <c r="AI4" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="25" t="s">
+      <c r="AJ4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="31" t="s">
+      <c r="AK4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AL4" s="31" t="s">
+      <c r="AL4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AM4" s="25" t="s">
+      <c r="AM4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AN4" s="44" t="s">
+      <c r="AN4" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="AO4" s="45"/>
-      <c r="AP4" s="46" t="s">
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="AQ4" s="45"/>
-      <c r="AR4" s="14"/>
-      <c r="AS4" s="14"/>
-      <c r="AT4" s="14"/>
-      <c r="AU4" s="14"/>
+      <c r="AQ4" s="37"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
     </row>
     <row r="5" spans="1:48" s="1" customFormat="1" ht="63" customHeight="1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="N5" s="33" t="s">
+      <c r="N5" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="34" t="s">
+      <c r="O5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="Q5" s="34" t="s">
+      <c r="Q5" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="34" t="s">
+      <c r="R5" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="S5" s="34" t="s">
+      <c r="S5" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="T5" s="34" t="s">
+      <c r="T5" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="U5" s="34" t="s">
+      <c r="U5" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="V5" s="34" t="s">
+      <c r="V5" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="W5" s="34" t="s">
+      <c r="W5" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="X5" s="34" t="s">
+      <c r="X5" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="Y5" s="34" t="s">
+      <c r="Y5" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="Z5" s="35" t="s">
+      <c r="Z5" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="AA5" s="34" t="s">
+      <c r="AA5" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="AB5" s="34" t="s">
+      <c r="AB5" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AC5" s="34" t="s">
+      <c r="AC5" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AD5" s="34" t="s">
+      <c r="AD5" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="AE5" s="34" t="s">
+      <c r="AE5" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="AF5" s="34" t="s">
+      <c r="AF5" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="AG5" s="34" t="s">
+      <c r="AG5" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AH5" s="34" t="s">
+      <c r="AH5" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="AI5" s="34" t="s">
+      <c r="AI5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="AJ5" s="34" t="s">
+      <c r="AJ5" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="AK5" s="34" t="s">
+      <c r="AK5" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="AL5" s="34" t="s">
+      <c r="AL5" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="AM5" s="34" t="s">
+      <c r="AM5" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="AN5" s="34" t="s">
+      <c r="AN5" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="AO5" s="34" t="s">
+      <c r="AO5" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="AP5" s="34" t="s">
+      <c r="AP5" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="AQ5" s="36" t="s">
+      <c r="AQ5" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AR5" s="37" t="s">
+      <c r="AR5" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="AS5" s="37" t="s">
+      <c r="AS5" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="AT5" s="37" t="s">
+      <c r="AT5" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="AU5" s="42" t="s">
+      <c r="AU5" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="AV5" s="43" t="s">
+      <c r="AV5" s="27" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="AG1:AM1"/>
@@ -1888,17 +1877,6 @@
     <mergeCell ref="AN2:AO2"/>
     <mergeCell ref="AP2:AQ2"/>
     <mergeCell ref="X1:AF1"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="AC3:AD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
